--- a/models/interpretations/entities_analysis/missed_model.xlsx
+++ b/models/interpretations/entities_analysis/missed_model.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prl222/OneDrive - The Open University/Projects/hate-speech-identities/models/interpretations/entities_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A924E3C-0E5B-E04E-BBFF-DA5E7966F0D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC46C6B-6439-F848-A7C5-497FE41124AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="7960" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missed_model" sheetId="1" r:id="rId1"/>
@@ -28,21 +28,9 @@
     <t>comment_id</t>
   </si>
   <si>
-    <t>logits_y_trues</t>
-  </si>
-  <si>
     <t>error_sample_logits</t>
   </si>
   <si>
-    <t>Error_UniCategories</t>
-  </si>
-  <si>
-    <t>logits_pos_matches</t>
-  </si>
-  <si>
-    <t>logits_neg_matches</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -812,12 +800,24 @@
   </si>
   <si>
     <t>cuckold;tranny;In Your Face: Political Activism Against Gender Oppression (Series);themming;The L Word;plural they;in face</t>
+  </si>
+  <si>
+    <t>Error_Categories</t>
+  </si>
+  <si>
+    <t>HybridLR$_{h}$_pos_matches</t>
+  </si>
+  <si>
+    <t>HybridLR$_{h}$_neg_matches</t>
+  </si>
+  <si>
+    <t>HybridLR$_{h}$_y_trues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1651,10 +1651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1666,33 +1668,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>6714</v>
@@ -1704,27 +1706,27 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>26001</v>
@@ -1736,16 +1738,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1753,7 +1755,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>585</v>
@@ -1765,16 +1767,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1782,7 +1784,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>15548</v>
@@ -1794,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1811,7 +1813,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>23454</v>
@@ -1823,16 +1825,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1840,7 +1842,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>8916</v>
@@ -1852,16 +1854,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1869,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7411</v>
@@ -1881,16 +1883,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1898,7 +1900,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>20918</v>
@@ -1910,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1927,7 +1929,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>13143</v>
@@ -1939,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1956,7 +1958,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>19712</v>
@@ -1968,27 +1970,27 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>14616</v>
@@ -2000,16 +2002,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2017,7 +2019,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>18257</v>
@@ -2029,27 +2031,27 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>21520</v>
@@ -2061,16 +2063,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2078,7 +2080,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>3418</v>
@@ -2090,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2104,7 +2106,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>12576</v>
@@ -2116,16 +2118,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2133,7 +2135,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>24658</v>
@@ -2145,27 +2147,27 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>18412</v>
@@ -2177,24 +2179,24 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>7471</v>
@@ -2206,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2220,7 +2222,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>21208</v>
@@ -2232,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2249,7 +2251,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>11875</v>
@@ -2261,27 +2263,27 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>5504</v>
@@ -2293,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2307,7 +2309,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>6972</v>
@@ -2319,27 +2321,27 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>25430</v>
@@ -2351,13 +2353,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2365,7 +2367,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>9514</v>
@@ -2377,16 +2379,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2394,7 +2396,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>17465</v>
@@ -2406,13 +2408,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2420,7 +2422,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>26395</v>
@@ -2432,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2446,7 +2448,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>8066</v>
@@ -2458,13 +2460,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2472,7 +2474,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>26993</v>
@@ -2484,16 +2486,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2501,7 +2503,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>6099</v>
@@ -2513,13 +2515,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2527,7 +2529,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>20134</v>
@@ -2539,16 +2541,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2556,7 +2558,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>16124</v>
@@ -2568,27 +2570,27 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>380</v>
@@ -2600,16 +2602,16 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2617,7 +2619,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>6278</v>
@@ -2629,24 +2631,24 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>10832</v>
@@ -2658,27 +2660,27 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>23226</v>
@@ -2690,27 +2692,27 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>19050</v>
@@ -2722,13 +2724,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>11992</v>
@@ -2748,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2759,7 +2761,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>27570</v>
@@ -2771,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -2782,7 +2784,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>25737</v>
@@ -2794,16 +2796,16 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2811,7 +2813,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>4741</v>
@@ -2823,24 +2825,24 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>24132</v>
@@ -2852,24 +2854,24 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>5260</v>
@@ -2881,24 +2883,24 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>12441</v>
@@ -2910,24 +2912,24 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>21055</v>
@@ -2939,24 +2941,24 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>15072</v>
@@ -2968,27 +2970,27 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>20484</v>
@@ -3000,27 +3002,27 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>8915</v>
@@ -3032,27 +3034,27 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B49">
         <v>33494</v>
@@ -3064,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -3081,7 +3083,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B50">
         <v>3335</v>
@@ -3093,27 +3095,27 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>15455</v>
@@ -3125,27 +3127,27 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B52">
         <v>30249</v>
@@ -3157,16 +3159,16 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -3174,7 +3176,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B53">
         <v>23492</v>
@@ -3186,24 +3188,24 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B54">
         <v>15572</v>
@@ -3215,16 +3217,16 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3232,7 +3234,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B55">
         <v>17605</v>
@@ -3244,16 +3246,16 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3261,7 +3263,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B56">
         <v>6097</v>
@@ -3273,27 +3275,27 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B57">
         <v>27544</v>
@@ -3305,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3319,7 +3321,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B58">
         <v>23312</v>
@@ -3331,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3348,7 +3350,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B59">
         <v>12444</v>
@@ -3360,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3374,7 +3376,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>19620</v>
@@ -3386,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3400,7 +3402,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>22289</v>
@@ -3412,13 +3414,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3426,7 +3428,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>15500</v>
@@ -3438,16 +3440,16 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3455,7 +3457,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>24019</v>
@@ -3467,16 +3469,16 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -3484,7 +3486,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>30860</v>
@@ -3496,27 +3498,27 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>25704</v>
@@ -3528,27 +3530,27 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>20983</v>
@@ -3560,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3574,7 +3576,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>4864</v>
@@ -3586,13 +3588,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3600,7 +3602,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B68">
         <v>7003</v>
@@ -3612,13 +3614,13 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3626,7 +3628,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B69">
         <v>12608</v>
@@ -3638,16 +3640,16 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3655,7 +3657,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B70">
         <v>6032</v>
@@ -3667,24 +3669,24 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B71">
         <v>6743</v>
@@ -3696,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3710,7 +3712,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B72">
         <v>30124</v>
@@ -3722,16 +3724,16 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3739,7 +3741,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B73">
         <v>18678</v>
@@ -3751,27 +3753,27 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B74">
         <v>24190</v>
@@ -3783,27 +3785,27 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3812,16 +3814,16 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3829,11 +3831,11 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
       <c r="C76">
         <v>1</v>
       </c>
@@ -3841,30 +3843,30 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3873,16 +3875,16 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -3890,10 +3892,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3902,16 +3904,16 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3919,10 +3921,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3931,16 +3933,16 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G79" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3948,10 +3950,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3960,30 +3962,30 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
         <v>11</v>
-      </c>
-      <c r="F80" t="s">
-        <v>168</v>
-      </c>
-      <c r="G80" t="s">
-        <v>169</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3992,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -4009,10 +4011,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4021,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4038,10 +4040,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4050,16 +4052,16 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G83" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4067,10 +4069,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4079,30 +4081,30 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G84" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4111,16 +4113,16 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4128,10 +4130,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4140,16 +4142,16 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4157,10 +4159,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4169,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G87" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4186,10 +4188,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4198,30 +4200,30 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G88" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4230,13 +4232,13 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4244,10 +4246,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4256,30 +4258,30 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4288,30 +4290,30 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G91" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4320,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -4334,10 +4336,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4346,30 +4348,30 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4378,30 +4380,30 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>202</v>
+      </c>
+      <c r="G94" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
         <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>206</v>
-      </c>
-      <c r="G94" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4410,16 +4412,16 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -4427,10 +4429,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4439,16 +4441,16 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G96" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4456,10 +4458,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4468,30 +4470,30 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4500,30 +4502,30 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G98" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4532,30 +4534,30 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G99" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4564,30 +4566,30 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G100" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4596,30 +4598,30 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G101" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4628,13 +4630,13 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4642,10 +4644,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4654,16 +4656,16 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4671,10 +4673,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4683,13 +4685,13 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -4697,10 +4699,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -4709,16 +4711,16 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G105" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -4726,10 +4728,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4738,27 +4740,27 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4767,10 +4769,10 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4778,10 +4780,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4790,16 +4792,16 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F108" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G108" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4807,10 +4809,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4819,30 +4821,30 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G109" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4851,13 +4853,13 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4865,10 +4867,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4877,16 +4879,16 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G111" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4894,10 +4896,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4906,13 +4908,13 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4920,10 +4922,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4932,13 +4934,13 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4946,10 +4948,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4958,13 +4960,13 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G114" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4972,10 +4974,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4984,16 +4986,16 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G115" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5001,10 +5003,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5013,27 +5015,27 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5042,16 +5044,16 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G117" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5059,10 +5061,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5071,27 +5073,27 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5100,22 +5102,22 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G119" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
